--- a/2生活+杂/2.1信息.xlsx
+++ b/2生活+杂/2.1信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22325" windowHeight="9215"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="亲人" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>编号</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t>李红伟</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 刘爱莲</t>
+  </si>
+  <si>
+    <t>6月多</t>
   </si>
   <si>
     <t>年龄</t>
@@ -402,8 +408,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -424,7 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,35 +454,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,7 +492,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,6 +507,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,7 +575,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +641,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,19 +695,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,133 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,6 +794,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -807,30 +837,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,10 +874,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,133 +886,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,14 +1382,14 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="5" max="5" width="9.12173913043478"/>
+    <col min="5" max="5" width="9.12037037037037"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1560,19 +1566,19 @@
   <sheetPr/>
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="5" max="5" width="9.12173913043478"/>
-    <col min="6" max="6" width="14.504347826087" customWidth="1"/>
-    <col min="7" max="7" width="13.504347826087" customWidth="1"/>
-    <col min="8" max="8" width="31.4695652173913" customWidth="1"/>
-    <col min="9" max="9" width="26.904347826087" customWidth="1"/>
-    <col min="11" max="11" width="20.1217391304348" customWidth="1"/>
+    <col min="5" max="5" width="9.12037037037037"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="31.4722222222222" customWidth="1"/>
+    <col min="9" max="9" width="26.9074074074074" customWidth="1"/>
+    <col min="11" max="11" width="20.1203703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2497,9 +2503,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -3021,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
